--- a/_resource/excel/Y-邮件-玩家属性-(框架维护,请勿修改).xlsx
+++ b/_resource/excel/Y-邮件-玩家属性-(框架维护,请勿修改).xlsx
@@ -262,9 +262,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>成就</t>
-  </si>
-  <si>
     <t>uint32</t>
   </si>
   <si>
@@ -407,6 +404,10 @@
   </si>
   <si>
     <t>#mailclass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -982,7 +983,7 @@
   <dimension ref="A1:AJ18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1022,7 +1023,7 @@
     <row r="1" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A1" s="8"/>
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
@@ -1098,7 +1099,7 @@
         <v>10</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O2" s="7" t="s">
         <v>11</v>
@@ -1318,10 +1319,10 @@
         <v>38</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P4" s="10" t="s">
         <v>39</v>
@@ -1389,19 +1390,19 @@
     </row>
     <row r="5" spans="1:36" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>56</v>
@@ -1463,13 +1464,13 @@
         <v>56</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>56</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P6" s="11">
         <v>0</v>
@@ -1522,16 +1523,16 @@
     </row>
     <row r="7" spans="1:36" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P7" s="11">
         <v>0</v>
@@ -1584,16 +1585,16 @@
     </row>
     <row r="8" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C8" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>100</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>101</v>
       </c>
       <c r="P8" s="11">
         <v>0</v>
@@ -1646,16 +1647,16 @@
     </row>
     <row r="9" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>77</v>
-      </c>
       <c r="E9" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P9" s="11">
         <v>0</v>
@@ -1708,16 +1709,16 @@
     </row>
     <row r="10" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>79</v>
-      </c>
       <c r="E10" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P10" s="11">
         <v>0</v>
@@ -1770,16 +1771,16 @@
     </row>
     <row r="11" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="11" t="s">
+      <c r="E11" s="11" t="s">
         <v>81</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>82</v>
       </c>
       <c r="P11" s="11">
         <v>0</v>
@@ -1832,16 +1833,16 @@
     </row>
     <row r="12" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P12" s="11">
         <v>0</v>
@@ -1894,16 +1895,16 @@
     </row>
     <row r="13" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C13" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" s="11" t="s">
         <v>97</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>98</v>
       </c>
       <c r="P13" s="11">
         <v>0</v>
@@ -1956,16 +1957,16 @@
     </row>
     <row r="14" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>73</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>74</v>
       </c>
       <c r="P14" s="11">
         <v>0</v>
@@ -2018,16 +2019,16 @@
     </row>
     <row r="15" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="E15" s="11" t="s">
         <v>73</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>74</v>
       </c>
       <c r="P15" s="11">
         <v>0</v>
@@ -2080,16 +2081,16 @@
     </row>
     <row r="16" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>91</v>
-      </c>
       <c r="E16" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P16" s="11">
         <v>0</v>
@@ -2142,16 +2143,16 @@
     </row>
     <row r="17" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="E17" s="11" t="s">
         <v>73</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>74</v>
       </c>
       <c r="P17" s="11">
         <v>0</v>
@@ -2204,16 +2205,16 @@
     </row>
     <row r="18" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B18" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" s="11" t="s">
         <v>73</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>74</v>
       </c>
       <c r="P18" s="11">
         <v>0</v>

--- a/_resource/excel/Y-邮件-玩家属性-(框架维护,请勿修改).xlsx
+++ b/_resource/excel/Y-邮件-玩家属性-(框架维护,请勿修改).xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" iterate="1" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -27,7 +27,7 @@
     <author>PCC</author>
   </authors>
   <commentList>
-    <comment ref="S4" authorId="0" shapeId="0">
+    <comment ref="T4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="108">
   <si>
     <t>LuaFile(string)</t>
   </si>
@@ -408,6 +408,22 @@
   </si>
   <si>
     <t>邮件</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Client(int)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端属性</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shield(int)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否屏蔽创建</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -980,10 +996,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ18"/>
+  <dimension ref="A1:AL18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1000,27 +1016,28 @@
     <col min="12" max="12" width="26" style="6" customWidth="1"/>
     <col min="13" max="13" width="23.75" style="6" customWidth="1"/>
     <col min="14" max="15" width="18.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.125" style="6" customWidth="1"/>
-    <col min="17" max="18" width="12.875" style="6" customWidth="1"/>
-    <col min="19" max="19" width="17.125" style="6" customWidth="1"/>
-    <col min="20" max="20" width="11" style="6" customWidth="1"/>
-    <col min="21" max="21" width="12.875" style="6" customWidth="1"/>
-    <col min="22" max="22" width="15" style="6" customWidth="1"/>
-    <col min="23" max="23" width="11" style="6" customWidth="1"/>
-    <col min="24" max="24" width="13.75" style="6" customWidth="1"/>
-    <col min="25" max="26" width="17.125" style="6" customWidth="1"/>
-    <col min="27" max="27" width="12.625" style="6" customWidth="1"/>
-    <col min="28" max="28" width="14.875" style="6" customWidth="1"/>
-    <col min="29" max="30" width="11.5" style="6" customWidth="1"/>
-    <col min="31" max="31" width="10.875" style="6" customWidth="1"/>
-    <col min="32" max="32" width="9.375" style="6" customWidth="1"/>
-    <col min="33" max="33" width="17.125" style="6" customWidth="1"/>
-    <col min="34" max="34" width="21.5" style="6" customWidth="1"/>
-    <col min="35" max="35" width="24.875" style="6" customWidth="1"/>
-    <col min="36" max="36" width="28.75" style="6" customWidth="1"/>
+    <col min="16" max="17" width="17.125" style="6" customWidth="1"/>
+    <col min="18" max="19" width="12.875" style="6" customWidth="1"/>
+    <col min="20" max="20" width="17.125" style="6" customWidth="1"/>
+    <col min="21" max="21" width="11" style="6" customWidth="1"/>
+    <col min="22" max="22" width="12.875" style="6" customWidth="1"/>
+    <col min="23" max="23" width="15" style="6" customWidth="1"/>
+    <col min="24" max="24" width="11" style="6" customWidth="1"/>
+    <col min="25" max="25" width="13.75" style="6" customWidth="1"/>
+    <col min="26" max="27" width="17.125" style="6" customWidth="1"/>
+    <col min="28" max="28" width="12.625" style="6" customWidth="1"/>
+    <col min="29" max="29" width="14.875" style="6" customWidth="1"/>
+    <col min="30" max="31" width="11.5" style="6" customWidth="1"/>
+    <col min="32" max="32" width="10.875" style="6" customWidth="1"/>
+    <col min="33" max="33" width="12.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.375" style="6" customWidth="1"/>
+    <col min="35" max="35" width="17.125" style="6" customWidth="1"/>
+    <col min="36" max="36" width="21.5" style="6" customWidth="1"/>
+    <col min="37" max="37" width="24.875" style="6" customWidth="1"/>
+    <col min="38" max="38" width="28.75" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A1" s="8"/>
       <c r="B1" s="1" t="s">
         <v>102</v>
@@ -1058,9 +1075,11 @@
       <c r="AG1" s="8"/>
       <c r="AH1" s="8"/>
       <c r="AI1" s="8"/>
-      <c r="AJ1" s="1"/>
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="1"/>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A2" s="7"/>
       <c r="B2" s="7" t="s">
         <v>1</v>
@@ -1104,71 +1123,77 @@
       <c r="O2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q2" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="R2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="S2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="T2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="U2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="V2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="W2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="X2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="Y2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Y2" s="7" t="s">
+      <c r="Z2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="Z2" s="7" t="s">
+      <c r="AA2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="AA2" s="7" t="s">
+      <c r="AB2" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="AB2" s="7" t="s">
+      <c r="AC2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="AC2" s="7" t="s">
+      <c r="AD2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="AD2" s="7" t="s">
+      <c r="AE2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="AE2" s="7" t="s">
+      <c r="AF2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AF2" s="7" t="s">
+      <c r="AG2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="AG2" s="7" t="s">
+      <c r="AI2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AH2" s="7" t="s">
+      <c r="AJ2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="AI2" s="7" t="s">
+      <c r="AK2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AL2" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A3" s="9">
         <v>0</v>
       </c>
@@ -1221,13 +1246,13 @@
         <v>3</v>
       </c>
       <c r="R3" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S3" s="9">
         <v>1</v>
       </c>
       <c r="T3" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U3" s="9">
         <v>3</v>
@@ -1239,7 +1264,7 @@
         <v>3</v>
       </c>
       <c r="X3" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y3" s="9">
         <v>1</v>
@@ -1248,7 +1273,7 @@
         <v>1</v>
       </c>
       <c r="AA3" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB3" s="9">
         <v>3</v>
@@ -1274,11 +1299,17 @@
       <c r="AI3" s="9">
         <v>3</v>
       </c>
-      <c r="AJ3" s="3">
+      <c r="AJ3" s="9">
+        <v>3</v>
+      </c>
+      <c r="AK3" s="9">
+        <v>3</v>
+      </c>
+      <c r="AL3" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
         <v>28</v>
       </c>
@@ -1324,71 +1355,77 @@
       <c r="O4" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="P4" s="10" t="s">
+      <c r="P4" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q4" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="Q4" s="10" t="s">
+      <c r="R4" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="10" t="s">
+      <c r="S4" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="S4" s="10" t="s">
+      <c r="T4" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="T4" s="10" t="s">
+      <c r="U4" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="U4" s="10" t="s">
+      <c r="V4" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="V4" s="10" t="s">
+      <c r="W4" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="W4" s="10" t="s">
+      <c r="X4" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="X4" s="10" t="s">
+      <c r="Y4" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="Y4" s="10" t="s">
+      <c r="Z4" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="Z4" s="10" t="s">
+      <c r="AA4" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="AA4" s="10" t="s">
+      <c r="AB4" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="AB4" s="10" t="s">
+      <c r="AC4" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="AC4" s="10" t="s">
+      <c r="AD4" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="AD4" s="10" t="s">
+      <c r="AE4" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AE4" s="10" t="s">
+      <c r="AF4" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AF4" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="10" t="s">
+      <c r="AG4" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="AH4" s="10" t="s">
+      <c r="AJ4" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="AI4" s="10" t="s">
+      <c r="AK4" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="AJ4" s="4" t="s">
+      <c r="AL4" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:36" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:38" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>103</v>
       </c>
@@ -1426,11 +1463,11 @@
         <v>0</v>
       </c>
       <c r="U5" s="5">
+        <v>0</v>
+      </c>
+      <c r="V5" s="5">
         <v>1</v>
       </c>
-      <c r="V5" s="5">
-        <v>0</v>
-      </c>
       <c r="W5" s="5">
         <v>0</v>
       </c>
@@ -1458,8 +1495,14 @@
       <c r="AE5" s="5">
         <v>0</v>
       </c>
+      <c r="AF5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="11" t="s">
         <v>56</v>
       </c>
@@ -1488,11 +1531,11 @@
         <v>0</v>
       </c>
       <c r="U6" s="11">
+        <v>0</v>
+      </c>
+      <c r="V6" s="11">
         <v>1</v>
       </c>
-      <c r="V6" s="11">
-        <v>0</v>
-      </c>
       <c r="W6" s="11">
         <v>0</v>
       </c>
@@ -1520,8 +1563,14 @@
       <c r="AE6" s="11">
         <v>0</v>
       </c>
+      <c r="AF6" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:36" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:38" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="11" t="s">
         <v>74</v>
       </c>
@@ -1550,11 +1599,11 @@
         <v>0</v>
       </c>
       <c r="U7" s="11">
+        <v>0</v>
+      </c>
+      <c r="V7" s="11">
         <v>1</v>
       </c>
-      <c r="V7" s="11">
-        <v>0</v>
-      </c>
       <c r="W7" s="11">
         <v>0</v>
       </c>
@@ -1582,8 +1631,14 @@
       <c r="AE7" s="11">
         <v>0</v>
       </c>
+      <c r="AF7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="11" t="s">
         <v>101</v>
       </c>
@@ -1612,11 +1667,11 @@
         <v>0</v>
       </c>
       <c r="U8" s="11">
+        <v>0</v>
+      </c>
+      <c r="V8" s="11">
         <v>1</v>
       </c>
-      <c r="V8" s="11">
-        <v>0</v>
-      </c>
       <c r="W8" s="11">
         <v>0</v>
       </c>
@@ -1644,8 +1699,14 @@
       <c r="AE8" s="11">
         <v>0</v>
       </c>
+      <c r="AF8" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="11" t="s">
         <v>75</v>
       </c>
@@ -1674,11 +1735,11 @@
         <v>0</v>
       </c>
       <c r="U9" s="11">
+        <v>0</v>
+      </c>
+      <c r="V9" s="11">
         <v>1</v>
       </c>
-      <c r="V9" s="11">
-        <v>0</v>
-      </c>
       <c r="W9" s="11">
         <v>0</v>
       </c>
@@ -1706,8 +1767,14 @@
       <c r="AE9" s="11">
         <v>0</v>
       </c>
+      <c r="AF9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="11" t="s">
         <v>77</v>
       </c>
@@ -1736,11 +1803,11 @@
         <v>0</v>
       </c>
       <c r="U10" s="11">
+        <v>0</v>
+      </c>
+      <c r="V10" s="11">
         <v>1</v>
       </c>
-      <c r="V10" s="11">
-        <v>0</v>
-      </c>
       <c r="W10" s="11">
         <v>0</v>
       </c>
@@ -1768,8 +1835,14 @@
       <c r="AE10" s="11">
         <v>0</v>
       </c>
+      <c r="AF10" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="11" t="s">
         <v>79</v>
       </c>
@@ -1798,11 +1871,11 @@
         <v>0</v>
       </c>
       <c r="U11" s="11">
+        <v>0</v>
+      </c>
+      <c r="V11" s="11">
         <v>1</v>
       </c>
-      <c r="V11" s="11">
-        <v>0</v>
-      </c>
       <c r="W11" s="11">
         <v>0</v>
       </c>
@@ -1830,8 +1903,14 @@
       <c r="AE11" s="11">
         <v>0</v>
       </c>
+      <c r="AF11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="11" t="s">
         <v>95</v>
       </c>
@@ -1860,11 +1939,11 @@
         <v>0</v>
       </c>
       <c r="U12" s="11">
+        <v>0</v>
+      </c>
+      <c r="V12" s="11">
         <v>1</v>
       </c>
-      <c r="V12" s="11">
-        <v>0</v>
-      </c>
       <c r="W12" s="11">
         <v>0</v>
       </c>
@@ -1892,8 +1971,14 @@
       <c r="AE12" s="11">
         <v>0</v>
       </c>
+      <c r="AF12" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="11" t="s">
         <v>98</v>
       </c>
@@ -1922,11 +2007,11 @@
         <v>0</v>
       </c>
       <c r="U13" s="11">
+        <v>0</v>
+      </c>
+      <c r="V13" s="11">
         <v>1</v>
       </c>
-      <c r="V13" s="11">
-        <v>0</v>
-      </c>
       <c r="W13" s="11">
         <v>0</v>
       </c>
@@ -1954,8 +2039,14 @@
       <c r="AE13" s="11">
         <v>0</v>
       </c>
+      <c r="AF13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="11" t="s">
         <v>86</v>
       </c>
@@ -1984,11 +2075,11 @@
         <v>0</v>
       </c>
       <c r="U14" s="11">
+        <v>0</v>
+      </c>
+      <c r="V14" s="11">
         <v>1</v>
       </c>
-      <c r="V14" s="11">
-        <v>0</v>
-      </c>
       <c r="W14" s="11">
         <v>0</v>
       </c>
@@ -2016,8 +2107,14 @@
       <c r="AE14" s="11">
         <v>0</v>
       </c>
+      <c r="AF14" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="11" t="s">
         <v>87</v>
       </c>
@@ -2046,11 +2143,11 @@
         <v>0</v>
       </c>
       <c r="U15" s="11">
+        <v>0</v>
+      </c>
+      <c r="V15" s="11">
         <v>1</v>
       </c>
-      <c r="V15" s="11">
-        <v>0</v>
-      </c>
       <c r="W15" s="11">
         <v>0</v>
       </c>
@@ -2078,8 +2175,14 @@
       <c r="AE15" s="11">
         <v>0</v>
       </c>
+      <c r="AF15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="11" t="s">
         <v>89</v>
       </c>
@@ -2108,11 +2211,11 @@
         <v>0</v>
       </c>
       <c r="U16" s="11">
+        <v>0</v>
+      </c>
+      <c r="V16" s="11">
         <v>1</v>
       </c>
-      <c r="V16" s="11">
-        <v>0</v>
-      </c>
       <c r="W16" s="11">
         <v>0</v>
       </c>
@@ -2140,8 +2243,14 @@
       <c r="AE16" s="11">
         <v>0</v>
       </c>
+      <c r="AF16" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:33" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="11" t="s">
         <v>91</v>
       </c>
@@ -2170,11 +2279,11 @@
         <v>0</v>
       </c>
       <c r="U17" s="11">
+        <v>0</v>
+      </c>
+      <c r="V17" s="11">
         <v>1</v>
       </c>
-      <c r="V17" s="11">
-        <v>0</v>
-      </c>
       <c r="W17" s="11">
         <v>0</v>
       </c>
@@ -2202,8 +2311,14 @@
       <c r="AE17" s="11">
         <v>0</v>
       </c>
+      <c r="AF17" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:31" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:33" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="11" t="s">
         <v>94</v>
       </c>
@@ -2232,11 +2347,11 @@
         <v>0</v>
       </c>
       <c r="U18" s="11">
+        <v>0</v>
+      </c>
+      <c r="V18" s="11">
         <v>1</v>
       </c>
-      <c r="V18" s="11">
-        <v>0</v>
-      </c>
       <c r="W18" s="11">
         <v>0</v>
       </c>
@@ -2262,6 +2377,12 @@
         <v>0</v>
       </c>
       <c r="AE18" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="11">
         <v>0</v>
       </c>
     </row>

--- a/_resource/excel/Y-邮件-玩家属性-(框架维护,请勿修改).xlsx
+++ b/_resource/excel/Y-邮件-玩家属性-(框架维护,请勿修改).xlsx
@@ -251,9 +251,6 @@
     <t>LogicName(string)</t>
   </si>
   <si>
-    <t>Group(int)</t>
-  </si>
-  <si>
     <t>基础属性</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -424,6 +421,32 @@
   </si>
   <si>
     <t>是否屏蔽创建</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>eam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(int)</t>
+    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -998,8 +1021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD4" sqref="AD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1040,7 +1063,7 @@
     <row r="1" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A1" s="8"/>
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
@@ -1118,13 +1141,13 @@
         <v>10</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O2" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q2" s="7" t="s">
         <v>60</v>
@@ -1160,7 +1183,7 @@
         <v>21</v>
       </c>
       <c r="AB2" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AC2" s="7" t="s">
         <v>22</v>
@@ -1175,7 +1198,7 @@
         <v>25</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AH2" s="7" t="s">
         <v>26</v>
@@ -1350,13 +1373,13 @@
         <v>38</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q4" s="10" t="s">
         <v>39</v>
@@ -1392,13 +1415,13 @@
         <v>49</v>
       </c>
       <c r="AB4" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AC4" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="AD4" s="10" t="s">
-        <v>63</v>
+      <c r="AD4" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="AE4" s="10" t="s">
         <v>51</v>
@@ -1407,7 +1430,7 @@
         <v>52</v>
       </c>
       <c r="AG4" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AH4" s="10" t="s">
         <v>0</v>
@@ -1427,19 +1450,19 @@
     </row>
     <row r="5" spans="1:38" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>72</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>56</v>
@@ -1507,13 +1530,13 @@
         <v>56</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>56</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P6" s="11">
         <v>0</v>
@@ -1572,16 +1595,16 @@
     </row>
     <row r="7" spans="1:38" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P7" s="11">
         <v>0</v>
@@ -1640,16 +1663,16 @@
     </row>
     <row r="8" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C8" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>99</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>100</v>
       </c>
       <c r="P8" s="11">
         <v>0</v>
@@ -1708,16 +1731,16 @@
     </row>
     <row r="9" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>76</v>
-      </c>
       <c r="E9" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P9" s="11">
         <v>0</v>
@@ -1776,16 +1799,16 @@
     </row>
     <row r="10" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>78</v>
-      </c>
       <c r="E10" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P10" s="11">
         <v>0</v>
@@ -1844,16 +1867,16 @@
     </row>
     <row r="11" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="11" t="s">
+      <c r="E11" s="11" t="s">
         <v>80</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>81</v>
       </c>
       <c r="P11" s="11">
         <v>0</v>
@@ -1912,16 +1935,16 @@
     </row>
     <row r="12" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P12" s="11">
         <v>0</v>
@@ -1980,16 +2003,16 @@
     </row>
     <row r="13" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C13" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="11" t="s">
         <v>96</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>97</v>
       </c>
       <c r="P13" s="11">
         <v>0</v>
@@ -2048,16 +2071,16 @@
     </row>
     <row r="14" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B14" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>72</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>73</v>
       </c>
       <c r="P14" s="11">
         <v>0</v>
@@ -2116,16 +2139,16 @@
     </row>
     <row r="15" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="E15" s="11" t="s">
         <v>72</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>73</v>
       </c>
       <c r="P15" s="11">
         <v>0</v>
@@ -2184,16 +2207,16 @@
     </row>
     <row r="16" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>90</v>
-      </c>
       <c r="E16" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P16" s="11">
         <v>0</v>
@@ -2252,16 +2275,16 @@
     </row>
     <row r="17" spans="1:33" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="E17" s="11" t="s">
         <v>72</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>73</v>
       </c>
       <c r="P17" s="11">
         <v>0</v>
@@ -2320,16 +2343,16 @@
     </row>
     <row r="18" spans="1:33" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B18" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="11" t="s">
         <v>72</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>73</v>
       </c>
       <c r="P18" s="11">
         <v>0</v>

--- a/_resource/excel/Y-邮件-玩家属性-(框架维护,请勿修改).xlsx
+++ b/_resource/excel/Y-邮件-玩家属性-(框架维护,请勿修改).xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="110">
   <si>
     <t>LuaFile(string)</t>
   </si>
@@ -111,9 +111,6 @@
   </si>
   <si>
     <t>同步客户端</t>
-  </si>
-  <si>
-    <t>延迟同步客户端</t>
   </si>
   <si>
     <t>同步查询者</t>
@@ -447,6 +444,18 @@
       </rPr>
       <t>(int)</t>
     </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求同步</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Request(int)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>延迟同步时间</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1019,10 +1028,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL18"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD4" sqref="AD4"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X12" sqref="X12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1044,26 +1053,26 @@
     <col min="20" max="20" width="17.125" style="6" customWidth="1"/>
     <col min="21" max="21" width="11" style="6" customWidth="1"/>
     <col min="22" max="22" width="12.875" style="6" customWidth="1"/>
-    <col min="23" max="23" width="15" style="6" customWidth="1"/>
-    <col min="24" max="24" width="11" style="6" customWidth="1"/>
-    <col min="25" max="25" width="13.75" style="6" customWidth="1"/>
-    <col min="26" max="27" width="17.125" style="6" customWidth="1"/>
-    <col min="28" max="28" width="12.625" style="6" customWidth="1"/>
-    <col min="29" max="29" width="14.875" style="6" customWidth="1"/>
-    <col min="30" max="31" width="11.5" style="6" customWidth="1"/>
-    <col min="32" max="32" width="10.875" style="6" customWidth="1"/>
-    <col min="33" max="33" width="12.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.375" style="6" customWidth="1"/>
-    <col min="35" max="35" width="17.125" style="6" customWidth="1"/>
-    <col min="36" max="36" width="21.5" style="6" customWidth="1"/>
-    <col min="37" max="37" width="24.875" style="6" customWidth="1"/>
-    <col min="38" max="38" width="28.75" style="6" customWidth="1"/>
+    <col min="23" max="24" width="15" style="6" customWidth="1"/>
+    <col min="25" max="25" width="11" style="6" customWidth="1"/>
+    <col min="26" max="26" width="13.75" style="6" customWidth="1"/>
+    <col min="27" max="28" width="17.125" style="6" customWidth="1"/>
+    <col min="29" max="29" width="12.625" style="6" customWidth="1"/>
+    <col min="30" max="30" width="14.875" style="6" customWidth="1"/>
+    <col min="31" max="32" width="11.5" style="6" customWidth="1"/>
+    <col min="33" max="33" width="10.875" style="6" customWidth="1"/>
+    <col min="34" max="34" width="12.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.375" style="6" customWidth="1"/>
+    <col min="36" max="36" width="17.125" style="6" customWidth="1"/>
+    <col min="37" max="37" width="21.5" style="6" customWidth="1"/>
+    <col min="38" max="38" width="24.875" style="6" customWidth="1"/>
+    <col min="39" max="39" width="28.75" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A1" s="8"/>
       <c r="B1" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
@@ -1100,9 +1109,10 @@
       <c r="AI1" s="8"/>
       <c r="AJ1" s="8"/>
       <c r="AK1" s="8"/>
-      <c r="AL1" s="1"/>
+      <c r="AL1" s="8"/>
+      <c r="AM1" s="1"/>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A2" s="7"/>
       <c r="B2" s="7" t="s">
         <v>1</v>
@@ -1111,7 +1121,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>3</v>
@@ -1126,7 +1136,7 @@
         <v>6</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>7</v>
@@ -1141,16 +1151,16 @@
         <v>10</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O2" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R2" s="7" t="s">
         <v>12</v>
@@ -1167,56 +1177,59 @@
       <c r="V2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="W2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="Z2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="Y2" s="7" t="s">
+      <c r="AA2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Z2" s="7" t="s">
+      <c r="AB2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="AA2" s="7" t="s">
+      <c r="AC2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="AB2" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC2" s="7" t="s">
+      <c r="AE2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="AD2" s="7" t="s">
+      <c r="AF2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="AE2" s="7" t="s">
+      <c r="AG2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="AF2" s="7" t="s">
+      <c r="AH2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AG2" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="AH2" s="7" t="s">
+      <c r="AJ2" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="AI2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="AJ2" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="AK2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="AL2" s="2" t="s">
-        <v>20</v>
+      <c r="AL2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A3" s="9">
         <v>0</v>
       </c>
@@ -1290,7 +1303,7 @@
         <v>3</v>
       </c>
       <c r="Y3" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z3" s="9">
         <v>1</v>
@@ -1299,7 +1312,7 @@
         <v>1</v>
       </c>
       <c r="AB3" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC3" s="9">
         <v>3</v>
@@ -1328,147 +1341,153 @@
       <c r="AK3" s="9">
         <v>3</v>
       </c>
-      <c r="AL3" s="3">
+      <c r="AL3" s="9">
+        <v>3</v>
+      </c>
+      <c r="AM3" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="D4" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="E4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="G4" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="H4" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="I4" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="J4" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="K4" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="L4" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="M4" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="N4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q4" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="R4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="S4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="T4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="U4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="V4" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="W4" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y4" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z4" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA4" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC4" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD4" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE4" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF4" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG4" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH4" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK4" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL4" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM4" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="O4" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q4" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="R4" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="S4" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="T4" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="U4" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="V4" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="W4" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="X4" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y4" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z4" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA4" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB4" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC4" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD4" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE4" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF4" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG4" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="AH4" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="AJ4" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK4" s="10" t="s">
+      <c r="E5" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AL4" s="4" t="s">
+      <c r="H5" s="5" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="P5" s="5">
         <v>0</v>
@@ -1524,19 +1543,22 @@
       <c r="AG5" s="5">
         <v>0</v>
       </c>
+      <c r="AH5" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:39" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P6" s="11">
         <v>0</v>
@@ -1592,19 +1614,22 @@
       <c r="AG6" s="11">
         <v>0</v>
       </c>
+      <c r="AH6" s="11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:38" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:39" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P7" s="11">
         <v>0</v>
@@ -1660,19 +1685,22 @@
       <c r="AG7" s="11">
         <v>0</v>
       </c>
+      <c r="AH7" s="11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:39" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C8" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>98</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>99</v>
       </c>
       <c r="P8" s="11">
         <v>0</v>
@@ -1728,19 +1756,22 @@
       <c r="AG8" s="11">
         <v>0</v>
       </c>
+      <c r="AH8" s="11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:39" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>75</v>
-      </c>
       <c r="E9" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P9" s="11">
         <v>0</v>
@@ -1796,19 +1827,22 @@
       <c r="AG9" s="11">
         <v>0</v>
       </c>
+      <c r="AH9" s="11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:39" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>77</v>
-      </c>
       <c r="E10" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P10" s="11">
         <v>0</v>
@@ -1864,19 +1898,22 @@
       <c r="AG10" s="11">
         <v>0</v>
       </c>
+      <c r="AH10" s="11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:39" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="11" t="s">
+      <c r="E11" s="11" t="s">
         <v>79</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>80</v>
       </c>
       <c r="P11" s="11">
         <v>0</v>
@@ -1932,19 +1969,22 @@
       <c r="AG11" s="11">
         <v>0</v>
       </c>
+      <c r="AH11" s="11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:39" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P12" s="11">
         <v>0</v>
@@ -2000,19 +2040,22 @@
       <c r="AG12" s="11">
         <v>0</v>
       </c>
+      <c r="AH12" s="11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:39" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C13" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="11" t="s">
         <v>95</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>96</v>
       </c>
       <c r="P13" s="11">
         <v>0</v>
@@ -2068,19 +2111,22 @@
       <c r="AG13" s="11">
         <v>0</v>
       </c>
+      <c r="AH13" s="11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:39" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B14" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>71</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>72</v>
       </c>
       <c r="P14" s="11">
         <v>0</v>
@@ -2136,19 +2182,22 @@
       <c r="AG14" s="11">
         <v>0</v>
       </c>
+      <c r="AH14" s="11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:39" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="E15" s="11" t="s">
         <v>71</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>72</v>
       </c>
       <c r="P15" s="11">
         <v>0</v>
@@ -2204,19 +2253,22 @@
       <c r="AG15" s="11">
         <v>0</v>
       </c>
+      <c r="AH15" s="11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:38" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:39" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>89</v>
-      </c>
       <c r="E16" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P16" s="11">
         <v>0</v>
@@ -2272,19 +2324,22 @@
       <c r="AG16" s="11">
         <v>0</v>
       </c>
+      <c r="AH16" s="11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:33" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:34" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="E17" s="11" t="s">
         <v>71</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>72</v>
       </c>
       <c r="P17" s="11">
         <v>0</v>
@@ -2340,19 +2395,22 @@
       <c r="AG17" s="11">
         <v>0</v>
       </c>
+      <c r="AH17" s="11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:33" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:34" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B18" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="11" t="s">
         <v>71</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>72</v>
       </c>
       <c r="P18" s="11">
         <v>0</v>
@@ -2406,6 +2464,9 @@
         <v>0</v>
       </c>
       <c r="AG18" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="11">
         <v>0</v>
       </c>
     </row>
